--- a/Web_Admin_Client/wwwroot/fileExcel/Khuyenmai.xlsx
+++ b/Web_Admin_Client/wwwroot/fileExcel/Khuyenmai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRUONG TRUNG TRONG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0B166-20A6-4388-B775-C40686F8CC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A28041F-A6A7-47DE-B8C8-A29F67CE7171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1524" yWindow="-48" windowWidth="21564" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -51,6 +51,39 @@
   </si>
   <si>
     <t>SP05</t>
+  </si>
+  <si>
+    <t>SP06</t>
+  </si>
+  <si>
+    <t>SP07</t>
+  </si>
+  <si>
+    <t>SP08</t>
+  </si>
+  <si>
+    <t>SP09</t>
+  </si>
+  <si>
+    <t>SP10</t>
+  </si>
+  <si>
+    <t>SP11</t>
+  </si>
+  <si>
+    <t>SP12</t>
+  </si>
+  <si>
+    <t>SP13</t>
+  </si>
+  <si>
+    <t>SP14</t>
+  </si>
+  <si>
+    <t>SP15</t>
+  </si>
+  <si>
+    <t>SP16</t>
   </si>
 </sst>
 </file>
@@ -410,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -463,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -506,6 +539,160 @@
       </c>
       <c r="D6">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44865</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44866</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44867</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44868</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44869</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44870</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44871</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44872</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44873</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44874</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44875</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Web_Admin_Client/wwwroot/fileExcel/Khuyenmai.xlsx
+++ b/Web_Admin_Client/wwwroot/fileExcel/Khuyenmai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRUONG TRUNG TRONG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A28041F-A6A7-47DE-B8C8-A29F67CE7171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981D42C0-C183-4261-9C4B-079E8923BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1524" yWindow="-48" windowWidth="21564" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -473,226 +473,226 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44860.006747685184</v>
+        <v>44866.006747685184</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44861</v>
+        <v>44867</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44862</v>
+        <v>44868</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44863</v>
+        <v>44869</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44864</v>
+        <v>44870</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44865</v>
+        <v>44871</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44866</v>
+        <v>44872</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44867</v>
+        <v>44873</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44868</v>
+        <v>44874</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44869</v>
+        <v>44875</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44870</v>
+        <v>44876</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44871</v>
+        <v>44877</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>44872</v>
+        <v>44878</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44873</v>
+        <v>44879</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>44874</v>
+        <v>44880</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44875</v>
+        <v>44881</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17">
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
